--- a/stats_database.xlsx
+++ b/stats_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/FCFB-Ref-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD2BF8-D36D-7144-B396-7EC0C5ECE327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981AA8E8-F0AE-C540-9354-001D8F2BF2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="820" windowWidth="24900" windowHeight="14640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Kickoffs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Result</t>
   </si>
@@ -77,6 +77,69 @@
   </si>
   <si>
     <t>Returned TD</t>
+  </si>
+  <si>
+    <t>Returns to the 5</t>
+  </si>
+  <si>
+    <t>Returns to the 65</t>
+  </si>
+  <si>
+    <t>Punt Six</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Ball at the 5</t>
+  </si>
+  <si>
+    <t>Ball at the 10</t>
+  </si>
+  <si>
+    <t>Ball at the 15</t>
+  </si>
+  <si>
+    <t>Ball at the 20</t>
+  </si>
+  <si>
+    <t>Ball at the 25</t>
+  </si>
+  <si>
+    <t>Ball at the 30</t>
+  </si>
+  <si>
+    <t>Ball at the 35</t>
+  </si>
+  <si>
+    <t>Ball at the 40</t>
+  </si>
+  <si>
+    <t>Ball at the 45</t>
+  </si>
+  <si>
+    <t>Ball at the 50</t>
+  </si>
+  <si>
+    <t>Ball at the 55</t>
+  </si>
+  <si>
+    <t>Ball at the 60</t>
+  </si>
+  <si>
+    <t>Ball at the 65</t>
+  </si>
+  <si>
+    <t>Ball at the 70</t>
+  </si>
+  <si>
+    <t>Touchback</t>
+  </si>
+  <si>
+    <t>Fumble</t>
+  </si>
+  <si>
+    <t>Touchdown</t>
   </si>
 </sst>
 </file>
@@ -106,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +188,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -138,13 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,30 +496,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,7 +531,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -469,28 +542,34 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>0</v>
       </c>
@@ -505,13 +584,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="A1:K4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -525,7 +604,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,13 +658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD47C0D-DB3A-1145-B495-01A49F352773}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -600,7 +680,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -642,12 +722,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B2529D-B42E-AB45-8C60-E7CBB12D01ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stats_database.xlsx
+++ b/stats_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/FCFB-Ref-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981AA8E8-F0AE-C540-9354-001D8F2BF2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64240CBC-3AE9-104A-AF2A-891944E288BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Kickoffs" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B2529D-B42E-AB45-8C60-E7CBB12D01ED}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/stats_database.xlsx
+++ b/stats_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apkick/Documents/Programming/FCFB-Ref-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF096498-DBE8-1A49-9A2C-4606BB5619F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB23A9FF-FAF4-E043-B3DC-DC11F0C64F63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Result</t>
   </si>
@@ -1050,12 +1050,12 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -1082,6 +1082,9 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1144,14 +1147,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1206,6 +1212,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2.8571428571428572</v>
+      </c>
       <c r="T4">
         <v>3.225806451612903</v>
       </c>
